--- a/documentacion/Agrupación de datos y decisiones.xlsx
+++ b/documentacion/Agrupación de datos y decisiones.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Adalab\PROYECTO\Modulo 3\project-da-promo-k-modulo-3-team-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BAF8E42-B2B3-4430-B3BB-04D375AEC7A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BE8C56A-C059-4317-9445-226E30B33440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="7" xr2:uid="{C7B29ED3-7BA0-4949-A03C-A8C9623641E0}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{C7B29ED3-7BA0-4949-A03C-A8C9623641E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Consideraciones generales" sheetId="7" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="211">
   <si>
     <t>Campo</t>
   </si>
@@ -664,12 +664,6 @@
     <t xml:space="preserve">
 * Se cambian todos los caracteres a minúsculas para facilitar su estudio
 * Se ha utilizado para rellenar department y luego se ha eliminado</t>
-  </si>
-  <si>
-    <t>Es el id de la tabla principal y lo heredarán todas las demás tablas</t>
-  </si>
-  <si>
-    <t>Una vez que tengamos todos los id de empleados correctos, tenemos que resetear index, para que tengamos un autoincrement a employee_number que pasar a SQL</t>
   </si>
   <si>
     <t>* Consultado con el cliente: Los datos nulos, son Full time</t>
@@ -843,6 +837,16 @@
   <si>
     <t>* Se cambian todos los caracteres a minúsculas para facilitar su estudio
 * Cambiar los no data por others</t>
+  </si>
+  <si>
+    <t>Esta tabla ya no existe</t>
+  </si>
+  <si>
+    <t>=-Es el id de la tabla principal y lo heredarán todas las demás tablas
+- Se borran las filas ´duplicadas una vez que comprobamos que son exactamente iguales</t>
+  </si>
+  <si>
+    <t>dejar como nulos</t>
   </si>
 </sst>
 </file>
@@ -975,7 +979,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -991,12 +995,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1035,7 +1033,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1077,9 +1075,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="5"/>
     </xf>
@@ -1123,18 +1118,12 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1145,9 +1134,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1201,18 +1187,6 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1240,7 +1214,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1270,6 +1244,30 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1282,25 +1280,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1618,10 +1610,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FB25C6F-76B8-4E16-A67C-AFB4F956F9F5}">
-  <dimension ref="A2:B15"/>
+  <dimension ref="A2:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1640,38 +1632,33 @@
       <c r="B4" s="4"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="16" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="16" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B7" s="71" t="s">
+      <c r="B7" s="63" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="16"/>
+      <c r="A9" s="15"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="16"/>
+      <c r="A10" s="15"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="15" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="16"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>169</v>
-      </c>
+      <c r="A12" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1684,7 +1671,7 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1697,7 +1684,7 @@
     <col min="6" max="7" width="11.5546875" style="6"/>
     <col min="8" max="8" width="18.77734375" style="6" customWidth="1"/>
     <col min="9" max="9" width="11.5546875" style="3"/>
-    <col min="10" max="10" width="28.5546875" style="5" customWidth="1"/>
+    <col min="10" max="10" width="28.5546875" style="90" customWidth="1"/>
     <col min="11" max="11" width="45.88671875" style="5" customWidth="1"/>
     <col min="12" max="12" width="6" customWidth="1"/>
   </cols>
@@ -1730,7 +1717,7 @@
       <c r="I1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="87" t="s">
         <v>6</v>
       </c>
       <c r="K1" s="9" t="s">
@@ -1738,117 +1725,66 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="42"/>
-      <c r="E2" s="49">
+      <c r="D2" s="38"/>
+      <c r="E2" s="45">
         <v>1</v>
       </c>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="46" t="s">
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="46" t="s">
+      <c r="K2" s="42" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="34" t="s">
+    <row r="3" spans="1:13" ht="88.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="12" t="s">
+      <c r="D3" s="38"/>
+      <c r="E3" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="K3" s="31" t="s">
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="89" t="s">
+        <v>209</v>
+      </c>
+      <c r="K3" s="42" t="s">
         <v>44</v>
       </c>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="65" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="56" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="56"/>
-      <c r="E4" s="58" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" s="55" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="68" t="s">
-        <v>102</v>
-      </c>
-      <c r="B5" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="C5" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="F5" s="41">
-        <v>200</v>
-      </c>
-      <c r="G5" s="41" t="s">
-        <v>86</v>
-      </c>
-      <c r="H5" s="41"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="40" t="s">
-        <v>206</v>
-      </c>
-      <c r="K5" s="46" t="s">
-        <v>92</v>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B10" s="86" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B12" s="21"/>
+      <c r="B12" s="20"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B13" s="22"/>
+      <c r="B13" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1861,7 +1797,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1914,139 +1850,139 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="43"/>
-      <c r="F2" s="36">
+      <c r="E2" s="39"/>
+      <c r="F2" s="33">
         <v>549</v>
       </c>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="40" t="s">
-        <v>208</v>
-      </c>
-      <c r="K2" s="46" t="s">
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="36" t="s">
+        <v>206</v>
+      </c>
+      <c r="K2" s="42" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="50" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="88" t="s">
+    <row r="3" spans="1:11" s="46" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="76" t="s">
         <v>117</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="42" t="s">
         <v>124</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="42" t="s">
+      <c r="D3" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="49"/>
-      <c r="F3" s="42">
+      <c r="E3" s="45"/>
+      <c r="F3" s="38">
         <v>1643</v>
       </c>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="48" t="s">
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="46" t="s">
-        <v>202</v>
+      <c r="K3" s="42" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="51" t="s">
         <v>126</v>
       </c>
-      <c r="C4" s="56" t="s">
+      <c r="C4" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="56"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="55"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="51"/>
     </row>
     <row r="5" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="51" t="s">
         <v>127</v>
       </c>
-      <c r="C5" s="56" t="s">
+      <c r="C5" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="56"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="57"/>
-      <c r="J5" s="57"/>
-      <c r="K5" s="55" t="s">
+      <c r="D5" s="52"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="51" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="23" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="30" t="s">
+    <row r="6" spans="1:11" s="22" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="52" t="s">
+      <c r="C6" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="52"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="54"/>
-      <c r="K6" s="51"/>
-    </row>
-    <row r="7" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="30" t="s">
+      <c r="D6" s="48"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="47"/>
+    </row>
+    <row r="7" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="47" t="s">
         <v>125</v>
       </c>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
-      <c r="K7" s="51"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="47"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B11" s="89"/>
+      <c r="B11" s="77"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2059,7 +1995,7 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2112,7 +2048,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="60" t="s">
         <v>84</v>
       </c>
       <c r="B2" s="10" t="s">
@@ -2125,7 +2061,7 @@
       <c r="E2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="36">
+      <c r="F2" s="33">
         <v>696</v>
       </c>
       <c r="G2" s="11" t="s">
@@ -2133,115 +2069,117 @@
       </c>
       <c r="H2" s="11"/>
       <c r="I2" s="13"/>
-      <c r="J2" s="10"/>
+      <c r="J2" s="10" t="s">
+        <v>210</v>
+      </c>
       <c r="K2" s="14" t="s">
         <v>87</v>
       </c>
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="43" t="s">
+      <c r="D3" s="37"/>
+      <c r="E3" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="F3" s="41">
+      <c r="F3" s="37">
         <v>351</v>
       </c>
-      <c r="G3" s="41" t="s">
+      <c r="G3" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="H3" s="41"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="46" t="s">
-        <v>170</v>
-      </c>
-      <c r="K3" s="46" t="s">
+      <c r="H3" s="37"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="42" t="s">
+        <v>168</v>
+      </c>
+      <c r="K3" s="42" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="42"/>
-      <c r="E4" s="43" t="s">
+      <c r="D4" s="38"/>
+      <c r="E4" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="41">
+      <c r="F4" s="37">
         <v>801</v>
       </c>
-      <c r="G4" s="41" t="s">
+      <c r="G4" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="41"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="46" t="s">
+      <c r="H4" s="37"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="42" t="s">
         <v>154</v>
       </c>
-      <c r="K4" s="46" t="s">
+      <c r="K4" s="42" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="47" t="s">
         <v>143</v>
       </c>
-      <c r="C5" s="52" t="s">
+      <c r="C5" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="52"/>
-      <c r="E5" s="53" t="s">
+      <c r="D5" s="48"/>
+      <c r="E5" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51" t="s">
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="38" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="32" t="s">
+    <row r="6" spans="1:13" s="35" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="55" t="s">
+      <c r="B6" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="56" t="s">
+      <c r="C6" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="56" t="s">
+      <c r="D6" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="58"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="55" t="s">
+      <c r="E6" s="54"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="51" t="s">
         <v>164</v>
       </c>
-      <c r="K6" s="55" t="s">
+      <c r="K6" s="51" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2255,8 +2193,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F893C116-BEF8-4F70-993B-C062F9A68F4A}">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2308,94 +2246,94 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="23" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="30" t="s">
+    <row r="2" spans="1:11" s="22" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="52"/>
-      <c r="E2" s="53" t="s">
+      <c r="D2" s="48"/>
+      <c r="E2" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="51" t="s">
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="47" t="s">
         <v>157</v>
       </c>
-      <c r="K2" s="51" t="s">
+      <c r="K2" s="47" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="56" t="s">
+      <c r="C3" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="56"/>
-      <c r="E3" s="58" t="s">
+      <c r="D3" s="52"/>
+      <c r="E3" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="55" t="s">
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="51" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="51" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="56" t="s">
+      <c r="C4" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="56"/>
-      <c r="E4" s="58" t="s">
+      <c r="D4" s="52"/>
+      <c r="E4" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="55" t="s">
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="51" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="72" x14ac:dyDescent="0.3">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="31" t="s">
         <v>112</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="37" t="s">
+      <c r="E5" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="F5" s="36">
+      <c r="F5" s="33">
         <v>114</v>
       </c>
       <c r="G5" s="11" t="s">
@@ -2403,37 +2341,93 @@
       </c>
       <c r="H5" s="11"/>
       <c r="I5" s="13"/>
-      <c r="J5" s="18" t="s">
-        <v>204</v>
+      <c r="J5" s="17" t="s">
+        <v>202</v>
       </c>
       <c r="K5" s="14" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="29" t="s">
+    <row r="6" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="52" t="s">
+      <c r="C6" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="52"/>
-      <c r="E6" s="53" t="s">
+      <c r="D6" s="48"/>
+      <c r="E6" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="54"/>
-      <c r="K6" s="51"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="47"/>
+    </row>
+    <row r="7" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="60" t="s">
+        <v>102</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="F7" s="37">
+        <v>200</v>
+      </c>
+      <c r="G7" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="H7" s="37"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="36" t="s">
+        <v>204</v>
+      </c>
+      <c r="K7" s="42" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="57" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="52"/>
+      <c r="E8" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="51" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="10" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B10" s="72" t="s">
-        <v>201</v>
+      <c r="B10" s="64" t="s">
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -2446,7 +2440,7 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15:D16"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2499,216 +2493,216 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="60" t="s">
         <v>146</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="70" t="s">
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45" t="s">
+      <c r="J2" s="41"/>
+      <c r="K2" s="41" t="s">
         <v>11</v>
       </c>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="30" t="s">
+    <row r="3" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="47" t="s">
         <v>149</v>
       </c>
-      <c r="C3" s="52" t="s">
+      <c r="C3" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="52"/>
-      <c r="E3" s="53" t="s">
+      <c r="D3" s="48"/>
+      <c r="E3" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="55" t="s">
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="51" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="36" t="s">
         <v>150</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="42"/>
-      <c r="E4" s="90" t="s">
-        <v>203</v>
-      </c>
-      <c r="F4" s="41">
+      <c r="D4" s="38"/>
+      <c r="E4" s="78" t="s">
+        <v>201</v>
+      </c>
+      <c r="F4" s="37">
         <v>774</v>
       </c>
-      <c r="G4" s="41" t="s">
+      <c r="G4" s="37" t="s">
         <v>162</v>
       </c>
-      <c r="H4" s="91"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="46" t="s">
-        <v>209</v>
-      </c>
-      <c r="K4" s="92" t="s">
+      <c r="H4" s="79"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="42" t="s">
+        <v>207</v>
+      </c>
+      <c r="K4" s="80" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="23" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="35" t="s">
+    <row r="5" spans="1:14" s="22" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="52" t="s">
+      <c r="C5" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="52" t="s">
+      <c r="D5" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="53">
+      <c r="E5" s="49">
         <v>0.1</v>
       </c>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54" t="s">
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50" t="s">
         <v>158</v>
       </c>
-      <c r="K5" s="51" t="s">
+      <c r="K5" s="47" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="41"/>
-      <c r="E6" s="87" t="s">
+      <c r="D6" s="37"/>
+      <c r="E6" s="75" t="s">
         <v>69</v>
       </c>
-      <c r="F6" s="41">
+      <c r="F6" s="37">
         <v>675</v>
       </c>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="46" t="s">
-        <v>207</v>
-      </c>
-      <c r="K6" s="46" t="s">
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="42" t="s">
+        <v>205</v>
+      </c>
+      <c r="K6" s="42" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="38" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="48" t="s">
+    <row r="7" spans="1:14" s="35" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="42" t="s">
+      <c r="C7" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="42" t="s">
+      <c r="D7" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="49" t="s">
+      <c r="E7" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="F7" s="42">
+      <c r="F7" s="38">
         <v>938</v>
       </c>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45" t="s">
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="K7" s="46" t="s">
+      <c r="K7" s="42" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="47" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="32" t="s">
+    <row r="8" spans="1:14" s="43" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="B8" s="55" t="s">
+      <c r="B8" s="51" t="s">
         <v>130</v>
       </c>
-      <c r="C8" s="56" t="s">
+      <c r="C8" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="56"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="55" t="s">
+      <c r="D8" s="52"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="51" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="50" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A9" s="48" t="s">
+    <row r="9" spans="1:14" s="46" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A9" s="44" t="s">
         <v>123</v>
       </c>
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="42" t="s">
         <v>134</v>
       </c>
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="42" t="s">
+      <c r="D9" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="49"/>
-      <c r="F9" s="42" t="s">
+      <c r="E9" s="45"/>
+      <c r="F9" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="45" t="s">
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="K9" s="46" t="s">
+      <c r="K9" s="42" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B12" s="89"/>
+      <c r="B12" s="77"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2720,8 +2714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C9D7E35-C134-47BF-8225-BED5DA93994C}">
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2774,217 +2768,217 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="72" x14ac:dyDescent="0.3">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="41"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="40" t="s">
-        <v>172</v>
-      </c>
-      <c r="K2" s="46"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="36" t="s">
+        <v>170</v>
+      </c>
+      <c r="K2" s="42"/>
     </row>
     <row r="3" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="86">
+      <c r="D3" s="37"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="74">
         <v>1267</v>
       </c>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="40" t="s">
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="K3" s="42" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="39"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="42" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="267.60000000000002" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="39"/>
+      <c r="F5" s="37">
+        <v>489</v>
+      </c>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="51" t="s">
         <v>171</v>
       </c>
-      <c r="K3" s="46" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="69" t="s">
-        <v>74</v>
-      </c>
-      <c r="B4" s="40" t="s">
-        <v>76</v>
-      </c>
-      <c r="C4" s="41" t="s">
+      <c r="K5" s="42" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="47" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="48"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+    </row>
+    <row r="7" spans="1:12" s="22" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="B7" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="C7" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="48"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="B8" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="42" t="s">
+      <c r="D8" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="43"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="46" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="267.60000000000002" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="B5" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="C5" s="41" t="s">
+      <c r="E8" s="59"/>
+      <c r="F8" s="38">
+        <v>489</v>
+      </c>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="K8" s="42" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="90.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="B9" s="51" t="s">
+        <v>145</v>
+      </c>
+      <c r="C9" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="42" t="s">
+      <c r="D9" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="43"/>
-      <c r="F5" s="41">
-        <v>489</v>
-      </c>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="55" t="s">
-        <v>173</v>
-      </c>
-      <c r="K5" s="46" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="B6" s="51" t="s">
-        <v>89</v>
-      </c>
-      <c r="C6" s="52" t="s">
+      <c r="E9" s="54"/>
+      <c r="F9" s="52">
+        <v>0</v>
+      </c>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="51" t="s">
+        <v>163</v>
+      </c>
+      <c r="K9" s="51" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="22" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10" s="47" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="52"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="51"/>
-    </row>
-    <row r="7" spans="1:12" s="23" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="B7" s="51" t="s">
-        <v>110</v>
-      </c>
-      <c r="C7" s="52" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="51" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="48" t="s">
-        <v>121</v>
-      </c>
-      <c r="B8" s="46" t="s">
-        <v>72</v>
-      </c>
-      <c r="C8" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="67"/>
-      <c r="F8" s="42">
-        <v>489</v>
-      </c>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="46" t="s">
-        <v>7</v>
-      </c>
-      <c r="K8" s="46" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="90.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="B9" s="55" t="s">
-        <v>145</v>
-      </c>
-      <c r="C9" s="56" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="56" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="58"/>
-      <c r="F9" s="56">
-        <v>0</v>
-      </c>
-      <c r="G9" s="56"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="55" t="s">
-        <v>163</v>
-      </c>
-      <c r="K9" s="55" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" s="23" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="B10" s="51" t="s">
-        <v>103</v>
-      </c>
-      <c r="C10" s="52" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="52"/>
-      <c r="E10" s="53" t="s">
+      <c r="D10" s="48"/>
+      <c r="E10" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="F10" s="52"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="51" t="s">
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="47" t="s">
         <v>155</v>
       </c>
-      <c r="K10" s="51" t="s">
+      <c r="K10" s="47" t="s">
         <v>105</v>
       </c>
     </row>
@@ -2995,7 +2989,7 @@
       <c r="L14" s="5"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B15" s="21"/>
+      <c r="B15" s="20"/>
       <c r="E15" s="6"/>
       <c r="F15" s="7"/>
       <c r="J15" s="3"/>
@@ -3013,155 +3007,155 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C19" s="84" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D19" s="84"/>
       <c r="E19" s="84"/>
       <c r="F19" s="84"/>
       <c r="G19" s="82" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H19" s="83"/>
       <c r="I19" s="83"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B20" s="5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C20" s="84"/>
       <c r="D20" s="84"/>
       <c r="E20" s="84"/>
       <c r="F20" s="84"/>
       <c r="G20" s="82" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H20" s="83"/>
       <c r="I20" s="83"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B21" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="C21" s="75" t="s">
-        <v>179</v>
-      </c>
-      <c r="D21" s="76" t="s">
+        <v>174</v>
+      </c>
+      <c r="C21" s="67" t="s">
+        <v>177</v>
+      </c>
+      <c r="D21" s="68" t="s">
+        <v>178</v>
+      </c>
+      <c r="E21" s="67" t="s">
         <v>180</v>
       </c>
-      <c r="E21" s="75" t="s">
-        <v>182</v>
-      </c>
-      <c r="F21" s="75" t="s">
-        <v>182</v>
-      </c>
-      <c r="G21" s="78" t="s">
-        <v>182</v>
-      </c>
-      <c r="H21" s="78" t="s">
-        <v>182</v>
-      </c>
-      <c r="I21" s="79" t="s">
-        <v>182</v>
+      <c r="F21" s="67" t="s">
+        <v>180</v>
+      </c>
+      <c r="G21" s="70" t="s">
+        <v>180</v>
+      </c>
+      <c r="H21" s="70" t="s">
+        <v>180</v>
+      </c>
+      <c r="I21" s="71" t="s">
+        <v>180</v>
       </c>
       <c r="J21" s="85" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K21" s="85"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B22" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="C22" s="75" t="s">
-        <v>174</v>
-      </c>
-      <c r="D22" s="76" t="s">
+        <v>175</v>
+      </c>
+      <c r="C22" s="67" t="s">
+        <v>172</v>
+      </c>
+      <c r="D22" s="68" t="s">
+        <v>183</v>
+      </c>
+      <c r="E22" s="67" t="s">
+        <v>181</v>
+      </c>
+      <c r="F22" s="67" t="s">
+        <v>182</v>
+      </c>
+      <c r="G22" s="70" t="s">
         <v>185</v>
       </c>
-      <c r="E22" s="75" t="s">
-        <v>183</v>
-      </c>
-      <c r="F22" s="75" t="s">
-        <v>184</v>
-      </c>
-      <c r="G22" s="78" t="s">
+      <c r="H22" s="70" t="s">
+        <v>186</v>
+      </c>
+      <c r="I22" s="71" t="s">
         <v>187</v>
       </c>
-      <c r="H22" s="78" t="s">
-        <v>188</v>
-      </c>
-      <c r="I22" s="79" t="s">
+      <c r="J22" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="J22" s="5" t="s">
-        <v>191</v>
-      </c>
       <c r="K22" s="5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C23" s="75"/>
-      <c r="D23" s="76"/>
-      <c r="E23" s="75"/>
-      <c r="F23" s="75"/>
-      <c r="G23" s="78"/>
-      <c r="H23" s="78"/>
-      <c r="I23" s="79"/>
+      <c r="C23" s="67"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="70"/>
+      <c r="I23" s="71"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B24" s="5">
         <v>8</v>
       </c>
-      <c r="C24" s="75"/>
-      <c r="D24" s="76"/>
-      <c r="E24" s="75"/>
-      <c r="F24" s="75"/>
-      <c r="G24" s="78"/>
-      <c r="H24" s="78"/>
-      <c r="I24" s="79"/>
+      <c r="C24" s="67"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="67"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="70"/>
+      <c r="I24" s="71"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>626</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="C25" s="75">
+        <v>194</v>
+      </c>
+      <c r="C25" s="67">
         <v>309.11</v>
       </c>
-      <c r="D25" s="77">
+      <c r="D25" s="69">
         <f>C25/(1+(J25/100))</f>
         <v>268.7913043478261</v>
       </c>
-      <c r="E25" s="77">
+      <c r="E25" s="69">
         <f>D25*21</f>
         <v>5644.6173913043476</v>
       </c>
-      <c r="F25" s="77">
+      <c r="F25" s="69">
         <f>E25*12</f>
         <v>67735.408695652179</v>
       </c>
-      <c r="G25" s="80">
+      <c r="G25" s="72">
         <f>D25/1.3/2</f>
         <v>103.38127090301003</v>
       </c>
-      <c r="H25" s="80">
+      <c r="H25" s="72">
         <f>G25*21</f>
         <v>2171.0066889632108</v>
       </c>
-      <c r="I25" s="80">
+      <c r="I25" s="72">
         <f>H25*12</f>
         <v>26052.080267558529</v>
       </c>
-      <c r="J25" s="73">
+      <c r="J25" s="65">
         <v>15</v>
       </c>
-      <c r="K25" s="74">
+      <c r="K25" s="66">
         <f>I25*(1+(J25/100))</f>
         <v>29959.892307692306</v>
       </c>
@@ -3171,90 +3165,90 @@
         <v>1237</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="C26" s="81">
+        <v>195</v>
+      </c>
+      <c r="C26" s="73">
         <v>311.79000000000002</v>
       </c>
-      <c r="D26" s="77">
+      <c r="D26" s="69">
         <f>C26/(1+(J26/100))</f>
         <v>257.67768595041326</v>
       </c>
-      <c r="E26" s="77">
+      <c r="E26" s="69">
         <f>D26*21</f>
         <v>5411.2314049586785</v>
       </c>
-      <c r="F26" s="77">
+      <c r="F26" s="69">
         <f>E26*12</f>
         <v>64934.776859504142</v>
       </c>
-      <c r="G26" s="80">
+      <c r="G26" s="72">
         <f>D26/1.3/2</f>
         <v>99.106802288620486</v>
       </c>
-      <c r="H26" s="80">
+      <c r="H26" s="72">
         <f>G26*21</f>
         <v>2081.2428480610301</v>
       </c>
-      <c r="I26" s="80">
+      <c r="I26" s="72">
         <f>H26*12</f>
         <v>24974.91417673236</v>
       </c>
-      <c r="J26" s="73">
+      <c r="J26" s="65">
         <v>21</v>
       </c>
-      <c r="K26" s="74">
+      <c r="K26" s="66">
         <f>I26*(1+(J26/100))</f>
         <v>30219.646153846155</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="J27" s="73"/>
+      <c r="J27" s="65"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="J28" s="73"/>
+        <v>193</v>
+      </c>
+      <c r="J28" s="65"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>624</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C29" s="6">
         <v>209.34</v>
       </c>
-      <c r="D29" s="77">
+      <c r="D29" s="69">
         <f t="shared" ref="D29:D30" si="0">C29/(1+(J29/100))</f>
         <v>174.45000000000002</v>
       </c>
-      <c r="E29" s="77">
+      <c r="E29" s="69">
         <f t="shared" ref="E29:E30" si="1">D29*21</f>
         <v>3663.4500000000003</v>
       </c>
-      <c r="F29" s="77">
+      <c r="F29" s="69">
         <f t="shared" ref="F29:F30" si="2">E29*12</f>
         <v>43961.4</v>
       </c>
-      <c r="G29" s="80">
+      <c r="G29" s="72">
         <f t="shared" ref="G29:G30" si="3">D29/1.3/2</f>
         <v>67.096153846153854</v>
       </c>
-      <c r="H29" s="80">
+      <c r="H29" s="72">
         <f t="shared" ref="H29:H30" si="4">G29*21</f>
         <v>1409.0192307692309</v>
       </c>
-      <c r="I29" s="80">
+      <c r="I29" s="72">
         <f t="shared" ref="I29:I30" si="5">H29*12</f>
         <v>16908.230769230773</v>
       </c>
-      <c r="J29" s="73">
+      <c r="J29" s="65">
         <v>20</v>
       </c>
-      <c r="K29" s="74">
+      <c r="K29" s="66">
         <f t="shared" ref="K29:K30" si="6">I29*(1+(J29/100))</f>
         <v>20289.876923076929</v>
       </c>
@@ -3264,54 +3258,54 @@
         <v>1265</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C30" s="6">
         <v>224.61</v>
       </c>
-      <c r="D30" s="77">
+      <c r="D30" s="69">
         <f t="shared" si="0"/>
         <v>191.97435897435901</v>
       </c>
-      <c r="E30" s="77">
+      <c r="E30" s="69">
         <f t="shared" si="1"/>
         <v>4031.461538461539</v>
       </c>
-      <c r="F30" s="77">
+      <c r="F30" s="69">
         <f t="shared" si="2"/>
         <v>48377.538461538468</v>
       </c>
-      <c r="G30" s="80">
+      <c r="G30" s="72">
         <f t="shared" si="3"/>
         <v>73.836291913215007</v>
       </c>
-      <c r="H30" s="80">
+      <c r="H30" s="72">
         <f t="shared" si="4"/>
         <v>1550.5621301775152</v>
       </c>
-      <c r="I30" s="80">
+      <c r="I30" s="72">
         <f t="shared" si="5"/>
         <v>18606.745562130181</v>
       </c>
-      <c r="J30" s="73">
+      <c r="J30" s="65">
         <v>17</v>
       </c>
-      <c r="K30" s="74">
+      <c r="K30" s="66">
         <f t="shared" si="6"/>
         <v>21769.892307692309</v>
       </c>
     </row>
     <row r="33" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="E33" s="7" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B34" s="64" t="s">
+        <v>197</v>
+      </c>
+      <c r="D34" s="64" t="s">
         <v>198</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B34" s="72" t="s">
-        <v>199</v>
-      </c>
-      <c r="D34" s="72" t="s">
-        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -3330,8 +3324,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DA0236E-5373-418A-9877-4E571B657A0C}">
   <dimension ref="A1:T6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3383,31 +3377,31 @@
       </c>
     </row>
     <row r="2" spans="1:20" ht="72" x14ac:dyDescent="0.3">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="42"/>
-      <c r="E2" s="46" t="s">
+      <c r="D2" s="38"/>
+      <c r="E2" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="42">
+      <c r="F2" s="38">
         <v>1366</v>
       </c>
-      <c r="G2" s="42" t="s">
+      <c r="G2" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="42"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="46" t="s">
+      <c r="H2" s="38"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="42" t="s">
         <v>165</v>
       </c>
-      <c r="K2" s="46" t="s">
+      <c r="K2" s="42" t="s">
         <v>29</v>
       </c>
       <c r="L2" s="4"/>
@@ -3421,113 +3415,113 @@
       <c r="T2" s="3"/>
     </row>
     <row r="3" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="56" t="s">
+      <c r="C3" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="56"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="55" t="s">
+      <c r="D3" s="52"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="51" t="s">
         <v>166</v>
       </c>
-      <c r="K3" s="55" t="s">
+      <c r="K3" s="51" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="72" x14ac:dyDescent="0.3">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="44" t="s">
         <v>156</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="42" t="s">
         <v>132</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="42"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="42">
+      <c r="D4" s="38"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="38">
         <v>1366</v>
       </c>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="46" t="s">
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="42" t="s">
         <v>167</v>
       </c>
-      <c r="K4" s="46" t="s">
+      <c r="K4" s="42" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="30" t="s">
         <v>160</v>
       </c>
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="80" t="s">
         <v>161</v>
       </c>
-      <c r="C5" s="60" t="s">
+      <c r="C5" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="60"/>
-      <c r="E5" s="59" t="s">
+      <c r="D5" s="74"/>
+      <c r="E5" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="62">
+      <c r="F5" s="74">
         <v>95</v>
       </c>
-      <c r="G5" s="60" t="s">
+      <c r="G5" s="74" t="s">
         <v>162</v>
       </c>
-      <c r="H5" s="60"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="59" t="s">
-        <v>205</v>
-      </c>
-      <c r="K5" s="39"/>
-    </row>
-    <row r="6" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="29" t="s">
+      <c r="H5" s="74"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="80" t="s">
+        <v>203</v>
+      </c>
+      <c r="K5" s="51"/>
+    </row>
+    <row r="6" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="52" t="s">
+      <c r="C6" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="52"/>
-      <c r="E6" s="53" t="s">
+      <c r="D6" s="48"/>
+      <c r="E6" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52" t="s">
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="I6" s="54"/>
-      <c r="J6" s="54"/>
-      <c r="K6" s="51" t="s">
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="L6" s="24"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="26"/>
-      <c r="R6" s="26"/>
-      <c r="S6" s="28"/>
-      <c r="T6" s="28"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="25"/>
+      <c r="S6" s="27"/>
+      <c r="T6" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
